--- a/auxiliary_op/unique_values_wikidata_urls.xlsx
+++ b/auxiliary_op/unique_values_wikidata_urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\TFG\cfkg\auxiliary_op\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12BFA53C-BE41-4B4E-96C3-04F00EE63B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D164A0D-8D51-4278-AB4F-3EA883D5A6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -646,9 +646,6 @@
     <t>https://w3id.org/ecfkg/i/emission_target/co2e_of_ch4</t>
   </si>
   <si>
-    <t xml:space="preserve">https://w3id.org/ecfkg/i/unit/Room_per_night </t>
-  </si>
-  <si>
     <t>https://w3id.org/ecfkg/i/unit/per_FTE_Working_Hour</t>
   </si>
   <si>
@@ -707,6 +704,9 @@
   </si>
   <si>
     <t>https://w3id.org/ecfkg/i/unit/Gg_COD_(wastewater)</t>
+  </si>
+  <si>
+    <t>https://w3id.org/ecfkg/i/unit/Room_per_night</t>
   </si>
 </sst>
 </file>
@@ -1085,18 +1085,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="56.21875" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>167</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -1304,7 +1304,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>168</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>63</v>
       </c>
@@ -1392,15 +1392,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>69</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>71</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>73</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -1472,15 +1472,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>171</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -1520,15 +1520,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -1536,15 +1536,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>98</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>104</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>105</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>107</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>108</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>110</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>112</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>116</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>118</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>120</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>122</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>123</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>125</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>127</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>131</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>133</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>137</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>139</v>
       </c>
@@ -1744,15 +1744,15 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>141</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>142</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>144</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>146</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>148</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>150</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>154</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>164</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>165</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>166</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>35</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>175</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>177</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>178</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>181</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>182</v>
       </c>
@@ -1904,114 +1904,114 @@
         <v>186</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>183</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>184</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>185</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>187</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>188</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>189</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>190</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>191</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>193</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>194</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>195</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>196</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>197</v>
       </c>
@@ -2019,7 +2019,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>198</v>
       </c>
@@ -2027,15 +2027,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>199</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>200</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>202</v>
       </c>
@@ -2051,7 +2051,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>203</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>204</v>
       </c>
@@ -2067,12 +2067,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>212</v>
+      </c>
+      <c r="B122" t="s">
         <v>213</v>
-      </c>
-      <c r="B122" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>
